--- a/P5_Abtey_Gaelle_Plan_Tests.xlsx
+++ b/P5_Abtey_Gaelle_Plan_Tests.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -65,8 +64,104 @@
     <t>L'ajout d'un ou plusieurs articles dans le panier.</t>
   </si>
   <si>
-    <r>
-      <t>Depuis la page produit, l'utilisateur peut sélectionner une quantité, une couleur, et ajouter le produit à son panie                                            Si les conditions de quantité et de couleur ne sont pas renseignées, impossible d'ajouter l'article dans le panier.                                                               si le panier contient déjà un produit avec le même id et la même couleur alors on incréménte la quantité, si non on ajoute le produit.                                                                                   Ajout du produit dans le local storage en sauvegardant sont</t>
+    <t>Affiche un tableau récapitulatif des achats dans la page Panier</t>
+  </si>
+  <si>
+    <t>Passer une commande valide</t>
+  </si>
+  <si>
+    <t>ouvrir sur la page panier via  le menue</t>
+  </si>
+  <si>
+    <t>Modification des articles</t>
+  </si>
+  <si>
+    <t>Suppression des articles</t>
+  </si>
+  <si>
+    <t>Modifier une quantité</t>
+  </si>
+  <si>
+    <t>Validation du formulaire</t>
+  </si>
+  <si>
+    <t>Remplir les champs du formulaire</t>
+  </si>
+  <si>
+    <t>Si les champs sont invalides, un message d'erreur apparait sous le champ.</t>
+  </si>
+  <si>
+    <t>La page de confirmation affiche le numero de cette commande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage du message de commande validée comprenant le numéro de commande.                   Suppression des données dans le local storage.                </t>
+  </si>
+  <si>
+    <t>ouvrir la page de confirmation.</t>
+  </si>
+  <si>
+    <t>La quantité de tous les articles sont modifiables et mis à jour de façon dynamique sans recharger la page.</t>
+  </si>
+  <si>
+    <t>Si toutes les conditions sont respectées, alors redirection vers la page de confirmation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer sur le bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Supprimer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> d'un article</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer sur le bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Commander</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> du panier.</t>
+    </r>
+  </si>
+  <si>
+    <t>L'article disparait de la page panier, il est supprimé du local storage et le total est mit à jour.</t>
+  </si>
+  <si>
+    <r>
+      <t>Depuis la page produit, l'utilisateur peut sélectionner une quantité, une couleur, et ajouter le produit à son panier.                                          Si la quantité du produit et de couleur ne sont pas renseignées, impossible d'ajouter l'article dans le panier.                                                                   Si le panier contient déjà un produit avec le même id et la même couleur alors on incréménte la quantité, si non on ajoute le produit.                                                                                   Ajout du produit dans le local storage en sauvegardant sont</t>
     </r>
     <r>
       <rPr>
@@ -139,103 +234,7 @@
     </r>
   </si>
   <si>
-    <t>Affiche un tableau récapitulatif des achats dans la page Panier</t>
-  </si>
-  <si>
-    <t>Passer une commande valide</t>
-  </si>
-  <si>
-    <t>ouvrir sur la page panier via  le menue</t>
-  </si>
-  <si>
-    <t>Modification des articles</t>
-  </si>
-  <si>
-    <t>Suppression des articles</t>
-  </si>
-  <si>
-    <t>Les articles ajoutés sont affichés avec les détails et les quantités.                                                       Les articles, identiques par leur ID, mais de couleur différente, sont bien séparés.</t>
-  </si>
-  <si>
-    <t>Modifier une quantité</t>
-  </si>
-  <si>
-    <t>Validation du formulaire</t>
-  </si>
-  <si>
-    <t>Remplir les champs du formulaire</t>
-  </si>
-  <si>
-    <t>Si les champs sont invalides, un message d'erreur apparait sous le champ.</t>
-  </si>
-  <si>
-    <t>La page de confirmation affiche le numero de cette commande.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage du message de commande validée comprenant le numéro de commande.                   Suppression des données dans le local storage.                </t>
-  </si>
-  <si>
-    <t>ouvrir la page de confirmation.</t>
-  </si>
-  <si>
-    <t>La quantité de tous les articles sont modifiables et mis à jour de façon dynamique sans recharger la page.</t>
-  </si>
-  <si>
-    <t>Si toutes les conditions sont respectées, alors redirection vers la page de confirmation.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cliquer sur le bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Supprimer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> d'un article</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cliquer sur le bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Commander</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> du panier.</t>
-    </r>
-  </si>
-  <si>
-    <t>L'article disparait de la page panier, il est supprimé du local storage et le total est mit à jour.</t>
+    <t>Les articles ajoutés sont affichés avec ses détails.                                                      Les articles articles ayant le même ID, mais des  couleurs différentes, sont bien séparés.</t>
   </si>
 </sst>
 </file>
@@ -728,8 +727,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -800,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>10</v>
@@ -811,13 +810,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>10</v>
@@ -828,13 +827,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>10</v>
@@ -845,13 +844,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>10</v>
@@ -862,13 +861,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>10</v>
@@ -879,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>10</v>
@@ -896,13 +895,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>10</v>
